--- a/tools/cityscapes2segmap_labels.xlsx
+++ b/tools/cityscapes2segmap_labels.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="76">
   <si>
     <t xml:space="preserve">Name (CityScape)</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t xml:space="preserve">Landscape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Road</t>
   </si>
   <si>
     <t xml:space="preserve">Small House</t>
@@ -344,14 +347,14 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.61"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.56"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.64"/>
@@ -400,7 +403,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>11</v>
@@ -423,7 +426,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>14</v>
@@ -791,7 +794,7 @@
         <v>66</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>67</v>
@@ -814,7 +817,7 @@
         <v>69</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>70</v>
@@ -849,7 +852,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G24" s="0" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>33</v>
@@ -857,7 +860,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G25" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>34</v>
